--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1598.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1598.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.347924796384433</v>
+        <v>0.6151345372200012</v>
       </c>
       <c r="B1">
-        <v>3.375821181726036</v>
+        <v>2.556543827056885</v>
       </c>
       <c r="C1">
-        <v>5.129983092531448</v>
+        <v>6.301563262939453</v>
       </c>
       <c r="D1">
-        <v>1.633815260915292</v>
+        <v>1.727394700050354</v>
       </c>
       <c r="E1">
-        <v>0.8973210435831721</v>
+        <v>1.578240036964417</v>
       </c>
     </row>
   </sheetData>
